--- a/files/Wwise属性配置/Wwise属性配置表.xlsx
+++ b/files/Wwise属性配置/Wwise属性配置表.xlsx
@@ -9,10 +9,9 @@
   <sheets>
     <sheet name="优先级" sheetId="2" r:id="rId5"/>
     <sheet name="限制数" sheetId="3" r:id="rId6"/>
-    <sheet name="Bus" sheetId="4" r:id="rId7"/>
-    <sheet name="衰减" sheetId="5" r:id="rId8"/>
+    <sheet name="衰减" sheetId="4" r:id="rId7"/>
+    <sheet name="响度" sheetId="5" r:id="rId8"/>
     <sheet name="手动Bank" sheetId="6" r:id="rId9"/>
-    <sheet name="响度" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -743,79 +742,6 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
-  </cols>
-  <sheetData>
-    <row customHeight="true" ht="111" r="1">
-      <c r="A1" s="1" t="str">
-        <v>Bus名称：根据名称创建相应的Bus对象，并放置在相应父级下。名字需要带父级前缀，例如Amb_xxx
-Bus描述：会打在notes中
-Bus作用对象：会为这些对象设置相应Bus
-单源Ducking：需要为此Bus设置单独的Meter发送信号。
-多源Ducking：可以和其他Bus发送至同一Aux Bus下，为其设置Meter发送信号
-状态混音：采用针对State调节音量的方式混音</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>Bus名称</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Bus描述</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Bus作用对象</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Bus混音方式：单源Ducking</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>Bus混音方式：多源Ducking</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>Bus混音方式：状态混音</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:T1"/>
-  </mergeCells>
-  <picture r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="46"/>
@@ -1013,6 +939,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetData/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
@@ -1044,19 +985,4 @@
   </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <sheetData/>
-  <picture r:id="rId1"/>
-</worksheet>
 </file>